--- a/RUDN/Importance/Varible_class_in_Micronesia.xlsx
+++ b/RUDN/Importance/Varible_class_in_Micronesia.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Population ages10-14, male (% of male population)</t>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
 </sst>
 </file>
